--- a/data/dishes.xlsx
+++ b/data/dishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Confidential\MyDinnerDive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE08FD4-D897-444B-89B3-F296A2DA8A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142ED2F9-43BF-4617-9734-993C9CC7E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22590" yWindow="4380" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
+    <workbookView xWindow="-21720" yWindow="4170" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>餐點 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,16 +69,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餅乾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>豚骨拉麵</t>
+  </si>
+  <si>
+    <t>地獄辣味拉麵</t>
+  </si>
+  <si>
+    <t>醬油拉麵</t>
+  </si>
+  <si>
+    <t>味噌拉麵</t>
+  </si>
+  <si>
+    <t>鹽味拉麵</t>
+  </si>
+  <si>
+    <t>秘密拉麵</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +179,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E49155C-24E6-44A5-B674-54852AEBDB71}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -557,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -571,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -585,10 +594,52 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>290</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/dishes.xlsx
+++ b/data/dishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Confidential\MyDinnerDive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142ED2F9-43BF-4617-9734-993C9CC7E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA57983-9AD9-4324-B2CB-2F5366632D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="4170" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
+    <workbookView xWindow="-16230" yWindow="3885" windowWidth="15780" windowHeight="10275" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="332">
   <si>
     <t>餐點 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,970 @@
   </si>
   <si>
     <t>秘密拉麵</t>
+  </si>
+  <si>
+    <t>雞腿飯淋咖哩</t>
+  </si>
+  <si>
+    <t>豬排嫩嫩飯</t>
+  </si>
+  <si>
+    <t>牛腩燉咖哩飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩椒豆腐咖哩飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙菇咖哩飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味脆皮鬆餅</t>
+  </si>
+  <si>
+    <t>蜂蜜奶油鬆餅</t>
+  </si>
+  <si>
+    <t>焦糖肉桂鬆餅</t>
+  </si>
+  <si>
+    <t>莓好戀人鬆餅</t>
+  </si>
+  <si>
+    <t>芒芒人海鬆餅</t>
+  </si>
+  <si>
+    <t>濃情布朗尼鬆餅</t>
+  </si>
+  <si>
+    <t>冷萃紅茶</t>
+  </si>
+  <si>
+    <t>拿鐵咖啡</t>
+  </si>
+  <si>
+    <t>黑糖珍奶</t>
+  </si>
+  <si>
+    <t>瑪格麗特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣味地獄牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香腸蘑菇雙霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙燻雞肉青醬披薩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照燒雞洋蔥披薩</t>
+  </si>
+  <si>
+    <t>培根玉米起司披薩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素食花園披薩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經典牛肉丼</t>
+  </si>
+  <si>
+    <t>炙燒鮭魚丼</t>
+  </si>
+  <si>
+    <t>叉燒溫泉蛋丼</t>
+  </si>
+  <si>
+    <t>唐揚雞丼</t>
+  </si>
+  <si>
+    <t>味噌豬排丼</t>
+  </si>
+  <si>
+    <t>蔥鹽雞腿丼</t>
+  </si>
+  <si>
+    <t>照燒豆腐野菜丼</t>
+  </si>
+  <si>
+    <t>明太子雞肉丼</t>
+  </si>
+  <si>
+    <t>鰻魚玉子丼</t>
+  </si>
+  <si>
+    <t>天婦羅綜合丼</t>
+  </si>
+  <si>
+    <t>經典肉醬義大利麵</t>
+  </si>
+  <si>
+    <t>白醬培根義大利麵</t>
+  </si>
+  <si>
+    <t>青醬雞肉義大利麵</t>
+  </si>
+  <si>
+    <t>蒜香蛤蜊義大利麵</t>
+  </si>
+  <si>
+    <t>辣味茄汁海鮮麵</t>
+  </si>
+  <si>
+    <t>松露奶油野菇麵</t>
+  </si>
+  <si>
+    <t>明太子奶油義大利麵</t>
+  </si>
+  <si>
+    <t>墨魚海鮮義大利麵</t>
+  </si>
+  <si>
+    <t>茄汁炸雞義大利麵</t>
+  </si>
+  <si>
+    <t>甜椒田園蔬菜麵（素）</t>
+  </si>
+  <si>
+    <t>經典厚切沙朗牛排</t>
+  </si>
+  <si>
+    <t>蒜香嫩肩牛排</t>
+  </si>
+  <si>
+    <t>奶油煎肋眼牛排</t>
+  </si>
+  <si>
+    <t>極黑和牛排餐</t>
+  </si>
+  <si>
+    <t>紅酒蘑菇菲力牛排</t>
+  </si>
+  <si>
+    <t>炭烤美式牛小排</t>
+  </si>
+  <si>
+    <t>蒜香雞腿佐牛排雙拼</t>
+  </si>
+  <si>
+    <t>戰斧牛排豪華套餐</t>
+  </si>
+  <si>
+    <t>辣味起司漢堡排牛排</t>
+  </si>
+  <si>
+    <t>香煎嫩豆腐佐田園牛排（素）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅燒半筋半肉牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">清燉牛腱牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻辣牛三寶麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">番茄牛肋條麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔥燒牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜味嫩肩牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">重磅霸王牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅燒牛筋麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">沙茶牛肉乾拌麵  </t>
+  </si>
+  <si>
+    <t>香菇素牛肉麵（素）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濃醇鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑糖珍珠鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">可可牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抹茶牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">草莓牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋頭牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜堅果牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">燕麥香蕉牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅茶鮮奶  </t>
+  </si>
+  <si>
+    <t>鮮奶酪杯（原味）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">招牌紅茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高山青茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜綠茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">檸檬冬瓜茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">百香雙Q綠  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奶蓋鐵觀音  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑糖珍珠鮮奶茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋頭鮮奶綠  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抹茶紅豆鮮奶  </t>
+  </si>
+  <si>
+    <t>椰果柳橙綠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">經典牛肉起司堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">培根花生醬牛堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雙層辣味牛肉堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酥炸雞腿堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">厚切牛排總匯堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">花生嫩蛋豬排堡  </t>
+  </si>
+  <si>
+    <t>田園蔬食豆腐堡（素）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿薩姆紅茶牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">濃郁可可鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑糖薑汁牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芝麻牛奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮橙牛奶  </t>
+  </si>
+  <si>
+    <t>手打芋泥牛奶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三杯雞腿便當  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">滷排骨飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香煎虱目魚肚  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔥爆牛肉蓋飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻油雞腿麵線  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔香茄子燴飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆豉鯖魚套餐  </t>
+  </si>
+  <si>
+    <t>炸豆腐滷肉飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆辣麻婆豆腐飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">椒麻雞腿蓋飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川香辣牛肉麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">剝皮辣椒雞湯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅油炒手套餐  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗆辣泡菜炒飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味起司年糕鍋  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">地獄麻辣燙拼盤  </t>
+  </si>
+  <si>
+    <t>泰式打拋豬飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煙燻火腿可頌  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奶油起司丹麥捲  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">番茄羅勒佛卡夏  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞肉酪梨帕尼尼  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜核桃雜糧麵包  </t>
+  </si>
+  <si>
+    <t>黑橄欖乳酪軟法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炙燒鮭魚握壽司  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炙干貝鮭魚卵軍艦  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭烤鰻魚握壽司  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">綜合生魚片壽司盤  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酪梨鮪魚手卷  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉子燒握壽司  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃金泡菜豆皮壽司  </t>
+  </si>
+  <si>
+    <t>起司鮭魚花壽司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭烤香料雞腿排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">迷迭香半雞餐  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香檸檬烤雞翅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">經典美式烤全雞  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味墨西哥烤雞腿  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜芥末雞翅拼盤  </t>
+  </si>
+  <si>
+    <t>黑胡椒烤雞堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔥爆牛肉  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔香蛤蜊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宮保雞丁  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三杯中卷  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻辣水煮魚  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鐵板豆腐  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炒山蘇  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹽酥蝦仁  </t>
+  </si>
+  <si>
+    <t>菜脯蛋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厚切沙朗牛排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭烤肋眼牛排佐奶油玉米  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑胡椒菲力牛排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅酒醬牛小排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司雙層牛肉堡排  </t>
+  </si>
+  <si>
+    <t>香煎雞腿牛排雙拼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奶油野菇燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香海鮮燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">青醬雞肉燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">松露牛肝菌燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">番茄起司燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味培根玉米燉飯  </t>
+  </si>
+  <si>
+    <t>墨魚汁燉飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蝦仁蛋炒飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">沙茶牛肉炒麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡菜豬肉炒飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">海鮮總匯炒麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">培根玉米炒飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">台式肉絲炒麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑胡椒牛排炒飯  </t>
+  </si>
+  <si>
+    <t>酸辣泰式炒泡麵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹筍排骨湯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韓式泡菜豆腐鍋  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻油松阪豬湯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">味噌鮭魚湯  </t>
+  </si>
+  <si>
+    <t>四神湯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原味優格飲  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">藍莓優格昔  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芒果椰奶優格  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇異果蜂蜜優格  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">草莓脆脆優格  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄柚氣泡優格飲  </t>
+  </si>
+  <si>
+    <t>燕麥香蕉優格昔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松露奶油龍蝦燉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司瀑布辣雞義大利麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雙重黑椒牛排炙烤飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">明太子海膽醬炒烏龍  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香濃花生醬豬肋排蓋飯  </t>
+  </si>
+  <si>
+    <t>濃縮醬燒三色起司漢堡排</t>
+  </si>
+  <si>
+    <t xml:space="preserve">經典脆皮炸雞腿  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味韓式炸雞翅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜芥末無骨雞塊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司瀑布雞排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑胡椒酥炸雞腿堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香椒鹽雞軟骨  </t>
+  </si>
+  <si>
+    <t>泰式酸辣雞米花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">經典起司牛肉堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBQ培根雙層堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">花生醬炸雞堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味墨西哥牛肉堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香煎雞腿總匯堡  </t>
+  </si>
+  <si>
+    <t>厚切牛排堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原味酥炸雞腿  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">川辣椒麻炸雞塊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韓式甜辣炸雞翅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司流心炸雞球  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰式打拋炸雞排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">墨西哥香料炸雞桶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹽酥雞脆皮拼盤  </t>
+  </si>
+  <si>
+    <t>蒜香奶油炸雞腿堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滷肉飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蚵仔麵線  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸雞排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韭菜水煎包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四神湯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雞捲飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香煎蘿蔔糕  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">肉羹米粉  </t>
+  </si>
+  <si>
+    <t>蔥油餅加蛋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">經典小籠包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">松露小籠包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻辣小籠湯包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">絲瓜蝦仁湯包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">干貝蟹黃小籠包  </t>
+  </si>
+  <si>
+    <t>起司牛肉小籠包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡蘿蔔蘋果汁  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡蘿蔔奶蓋茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡蘿蔔可麗餅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡蘿蔔鮮蝦煎餅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡蘿蔔漢堡排  </t>
+  </si>
+  <si>
+    <t>胡蘿蔔起司焗烤飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅酒燉牛肉  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">沙茶牛肉炒烏龍  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑胡椒牛排飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻辣牛肉乾拌麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韓式泡菜牛肉鍋  </t>
+  </si>
+  <si>
+    <t>日式壽喜燒牛肉飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯖魚味噌煮定食  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">照燒雞腿御膳  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豚肉壽喜燒套餐  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮭魚親子丼  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑鮪魚刺身定食  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭烤牛舌定食  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">柚香鮮魚鹽燒御膳  </t>
+  </si>
+  <si>
+    <t>鰻魚玉子重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹹蛋炒苦瓜  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">苦瓜封  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涼拌梅汁苦瓜  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">苦瓜牛肉炒麵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">苦瓜雞湯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">苦瓜皮蛋豆腐  </t>
+  </si>
+  <si>
+    <t>苦瓜黑糖剉冰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日式炸豬排咖哩飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">濃厚起司牛肉咖哩  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香料雞肉咖哩飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰式綠咖哩椰奶雞  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">馬鈴薯紅蘿蔔牛咖哩  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">歐姆蛋咖哩飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">素食田園蔬菜咖哩  </t>
+  </si>
+  <si>
+    <t>辣味炸蝦咖哩飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香草鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芒果牛奶冰沙  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抹茶牛奶昔  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">藍莓優格鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑糖珍珠厚牛奶  </t>
+  </si>
+  <si>
+    <t>薑汁桂圓鮮奶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草莓煉乳鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">焦糖布丁紅茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄果凍綠茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜜桃烏龍奶蓋  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">可可脆片奶昔  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋泥波波牛奶  </t>
+  </si>
+  <si>
+    <t>荔枝椰果冰沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原味炸雞腿  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃金薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">韓式甜辣炸雞  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">椒鹽雞米花  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">脆皮薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒜香雞翅  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香料薯格  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰式酸辣雞塊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋頭薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司炸雞排  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">地瓜薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜂蜜芥末無骨雞  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雙拼薯條  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑胡椒雞塊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣味薯球  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司牛肉堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸雞腿總匯堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">墨西哥辣味牛堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">花生醬豬排堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雙層魚排塔塔堡  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司瀑布漢堡排  </t>
+  </si>
+  <si>
+    <t>田園蔬菜漢堡（素）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芒果鮮奶冰沙  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇異果綠茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">百香雙Q果飲  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄柚寒天飲  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">草莓優格果昔  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鳳梨椰奶爽  </t>
+  </si>
+  <si>
+    <t>柳橙芭樂綠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無糖決明子麥茶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇亞籽檸檬水  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">燕麥豆漿  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抹茶無糖鮮奶  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅蘿蔔蘋果汁  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">洛神花寒天飲  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酪梨牛奶（無糖）  </t>
+  </si>
+  <si>
+    <t>黃金薑黃蜂蜜水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韓式石鍋拌飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">辣炒豬肉拌飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">照燒雞腿拌飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉泡菜起司拌飯  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔬菜豆腐拌飯（素）  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">明太子鮭魚拌飯  </t>
+  </si>
+  <si>
+    <t>炙燒牛五花蒜香拌飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮肉大包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香菇雞肉包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高麗菜素包（素）  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻辣牛肉包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">起司玉米包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">叉燒包  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋泥流沙包  </t>
+  </si>
+  <si>
+    <t>紅豆豆沙包</t>
   </si>
 </sst>
 </file>
@@ -181,8 +1145,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,16 +1482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E49155C-24E6-44A5-B674-54852AEBDB71}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="3" width="22.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -568,11 +1532,11 @@
       <c r="C3" s="1">
         <v>280</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -582,11 +1546,11 @@
       <c r="C4" s="1">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -596,50 +1560,4544 @@
       <c r="C5" s="1">
         <v>240</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>230</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>290</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>180</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>220</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>160</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>150</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>120</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>140</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>180</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>190</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>180</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>90</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>220</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>250</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>290</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>260</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>270</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>260</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>240</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>230</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>120</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>150</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>130</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>135</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>180</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>150</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>150</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>160</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>170</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>180</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>190</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>200</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>180</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>210</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>170</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>140</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>250</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>260</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>280</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>300</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>270</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>290</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>310</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>330</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>275</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>240</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>160</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>180</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>190</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>170</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>210</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>220</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1">
+        <v>150</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>180</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1">
+        <v>140</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>60</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <v>65</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>70</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>75</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1">
+        <v>80</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>85</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>90</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1">
+        <v>95</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>70</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <v>60</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <v>40</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1">
+        <v>50</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1">
+        <v>55</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1">
+        <v>55</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1">
+        <v>60</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1">
+        <v>65</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1">
+        <v>70</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1">
+        <v>60</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>50</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1">
+        <v>80</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1">
+        <v>95</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1">
+        <v>100</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1">
+        <v>120</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1">
+        <v>130</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1">
+        <v>90</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1">
+        <v>70</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1">
+        <v>60</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1">
+        <v>70</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
+        <v>75</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1">
+        <v>80</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1">
+        <v>65</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1">
+        <v>90</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <v>100</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1">
+        <v>110</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>13</v>
+      </c>
+      <c r="C106" s="1">
+        <v>95</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1">
+        <v>120</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1">
+        <v>130</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1">
+        <v>90</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1">
+        <v>85</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1">
+        <v>105</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1">
+        <v>100</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1">
+        <v>120</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1">
+        <v>110</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1">
+        <v>130</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1">
+        <v>125</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1">
+        <v>95</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1">
+        <v>105</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1">
+        <v>140</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1">
+        <v>90</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>15</v>
+      </c>
+      <c r="C121" s="1">
+        <v>85</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>15</v>
+      </c>
+      <c r="C122" s="1">
+        <v>95</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1">
+        <v>120</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>15</v>
+      </c>
+      <c r="C124" s="1">
+        <v>100</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>15</v>
+      </c>
+      <c r="C125" s="1">
+        <v>90</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>15</v>
+      </c>
+      <c r="C126" s="1">
+        <v>110</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1">
+        <v>90</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1">
+        <v>100</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1">
+        <v>110</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1">
+        <v>130</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1">
+        <v>120</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1">
+        <v>95</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>16</v>
+      </c>
+      <c r="C133" s="1">
+        <v>85</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>16</v>
+      </c>
+      <c r="C134" s="1">
+        <v>105</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1">
+        <v>120</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1">
+        <v>150</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1">
+        <v>135</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>17</v>
+      </c>
+      <c r="C138" s="1">
+        <v>160</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>17</v>
+      </c>
+      <c r="C139" s="1">
+        <v>140</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1">
+        <v>100</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>17</v>
+      </c>
+      <c r="C141" s="1">
+        <v>90</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>18</v>
+      </c>
+      <c r="C142" s="1">
+        <v>120</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>18</v>
+      </c>
+      <c r="C143" s="1">
+        <v>130</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1">
+        <v>110</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>18</v>
+      </c>
+      <c r="C145" s="1">
+        <v>100</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>150</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>19</v>
+      </c>
+      <c r="C147" s="1">
+        <v>140</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>19</v>
+      </c>
+      <c r="C148" s="1">
+        <v>90</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1">
+        <v>160</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1">
+        <v>95</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>20</v>
+      </c>
+      <c r="C151" s="1">
+        <v>250</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>20</v>
+      </c>
+      <c r="C152" s="1">
+        <v>270</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20</v>
+      </c>
+      <c r="C153" s="1">
+        <v>290</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1">
+        <v>310</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>20</v>
+      </c>
+      <c r="C155" s="1">
+        <v>260</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>20</v>
+      </c>
+      <c r="C156" s="1">
+        <v>240</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1">
+        <v>160</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>21</v>
+      </c>
+      <c r="C158" s="1">
+        <v>180</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>21</v>
+      </c>
+      <c r="C159" s="1">
+        <v>190</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>21</v>
+      </c>
+      <c r="C160" s="1">
+        <v>200</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>21</v>
+      </c>
+      <c r="C161" s="1">
+        <v>175</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>21</v>
+      </c>
+      <c r="C162" s="1">
+        <v>185</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>21</v>
+      </c>
+      <c r="C163" s="1">
+        <v>170</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>22</v>
+      </c>
+      <c r="C164" s="1">
+        <v>90</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>22</v>
+      </c>
+      <c r="C165" s="1">
+        <v>100</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>22</v>
+      </c>
+      <c r="C166" s="1">
+        <v>110</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>22</v>
+      </c>
+      <c r="C167" s="1">
+        <v>120</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>22</v>
+      </c>
+      <c r="C168" s="1">
+        <v>95</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>22</v>
+      </c>
+      <c r="C169" s="1">
+        <v>105</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>22</v>
+      </c>
+      <c r="C170" s="1">
+        <v>130</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>22</v>
+      </c>
+      <c r="C171" s="1">
+        <v>115</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>23</v>
+      </c>
+      <c r="C172" s="1">
+        <v>80</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>23</v>
+      </c>
+      <c r="C173" s="1">
+        <v>90</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>23</v>
+      </c>
+      <c r="C174" s="1">
+        <v>100</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1">
+        <v>120</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
+        <v>23</v>
+      </c>
+      <c r="C176" s="1">
+        <v>110</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>23</v>
+      </c>
+      <c r="C177" s="1">
+        <v>95</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>24</v>
+      </c>
+      <c r="C178" s="1">
+        <v>65</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>24</v>
+      </c>
+      <c r="C179" s="1">
+        <v>70</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>24</v>
+      </c>
+      <c r="C180" s="1">
+        <v>75</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
+        <v>24</v>
+      </c>
+      <c r="C181" s="1">
+        <v>80</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>24</v>
+      </c>
+      <c r="C182" s="1">
+        <v>85</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
+        <v>24</v>
+      </c>
+      <c r="C183" s="1">
+        <v>90</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>24</v>
+      </c>
+      <c r="C184" s="1">
+        <v>75</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>25</v>
+      </c>
+      <c r="C185" s="1">
+        <v>180</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>25</v>
+      </c>
+      <c r="C186" s="1">
+        <v>220</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>25</v>
+      </c>
+      <c r="C187" s="1">
+        <v>250</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>25</v>
+      </c>
+      <c r="C188" s="1">
+        <v>240</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>25</v>
+      </c>
+      <c r="C189" s="1">
+        <v>260</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>25</v>
+      </c>
+      <c r="C190" s="1">
+        <v>230</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>26</v>
+      </c>
+      <c r="C191" s="1">
+        <v>90</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
+        <v>26</v>
+      </c>
+      <c r="C192" s="1">
+        <v>100</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>26</v>
+      </c>
+      <c r="C193" s="1">
+        <v>110</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>26</v>
+      </c>
+      <c r="C194" s="1">
+        <v>120</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>26</v>
+      </c>
+      <c r="C195" s="1">
+        <v>130</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>26</v>
+      </c>
+      <c r="C196" s="1">
+        <v>95</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>26</v>
+      </c>
+      <c r="C197" s="1">
+        <v>105</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>27</v>
+      </c>
+      <c r="C198" s="1">
+        <v>110</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>27</v>
+      </c>
+      <c r="C199" s="1">
+        <v>130</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>27</v>
+      </c>
+      <c r="C200" s="1">
+        <v>140</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>27</v>
+      </c>
+      <c r="C201" s="1">
+        <v>125</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>27</v>
+      </c>
+      <c r="C202" s="1">
+        <v>115</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>27</v>
+      </c>
+      <c r="C203" s="1">
+        <v>150</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>28</v>
+      </c>
+      <c r="C204" s="1">
+        <v>90</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>28</v>
+      </c>
+      <c r="C205" s="1">
+        <v>100</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>28</v>
+      </c>
+      <c r="C206" s="1">
+        <v>120</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>28</v>
+      </c>
+      <c r="C207" s="1">
+        <v>110</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>28</v>
+      </c>
+      <c r="C208" s="1">
+        <v>130</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>28</v>
+      </c>
+      <c r="C209" s="1">
+        <v>140</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>28</v>
+      </c>
+      <c r="C210" s="1">
+        <v>95</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>28</v>
+      </c>
+      <c r="C211" s="1">
+        <v>125</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>29</v>
+      </c>
+      <c r="C212" s="1">
+        <v>50</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>29</v>
+      </c>
+      <c r="C213" s="1">
+        <v>60</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>29</v>
+      </c>
+      <c r="C214" s="1">
+        <v>70</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>29</v>
+      </c>
+      <c r="C215" s="1">
+        <v>65</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>29</v>
+      </c>
+      <c r="C216" s="1">
+        <v>55</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>29</v>
+      </c>
+      <c r="C217" s="1">
+        <v>75</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>29</v>
+      </c>
+      <c r="C218" s="1">
+        <v>80</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>29</v>
+      </c>
+      <c r="C219" s="1">
+        <v>90</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>29</v>
+      </c>
+      <c r="C220" s="1">
+        <v>85</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>30</v>
+      </c>
+      <c r="C221" s="1">
+        <v>90</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>30</v>
+      </c>
+      <c r="C222" s="1">
+        <v>100</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>30</v>
+      </c>
+      <c r="C223" s="1">
+        <v>110</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>30</v>
+      </c>
+      <c r="C224" s="1">
+        <v>95</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>30</v>
+      </c>
+      <c r="C225" s="1">
+        <v>120</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>30</v>
+      </c>
+      <c r="C226" s="1">
+        <v>105</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>31</v>
+      </c>
+      <c r="C227" s="1">
+        <v>70</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>31</v>
+      </c>
+      <c r="C228" s="1">
+        <v>80</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>31</v>
+      </c>
+      <c r="C229" s="1">
+        <v>90</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>31</v>
+      </c>
+      <c r="C230" s="1">
+        <v>85</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>31</v>
+      </c>
+      <c r="C231" s="1">
+        <v>95</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>31</v>
+      </c>
+      <c r="C232" s="1">
+        <v>100</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>32</v>
+      </c>
+      <c r="C233" s="1">
+        <v>130</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>32</v>
+      </c>
+      <c r="C234" s="1">
+        <v>150</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>32</v>
+      </c>
+      <c r="C235" s="1">
+        <v>140</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>32</v>
+      </c>
+      <c r="C236" s="1">
+        <v>160</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>32</v>
+      </c>
+      <c r="C237" s="1">
+        <v>135</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>32</v>
+      </c>
+      <c r="C238" s="1">
+        <v>145</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>32</v>
+      </c>
+      <c r="C239" s="1">
+        <v>155</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>33</v>
+      </c>
+      <c r="C240" s="1">
+        <v>160</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>33</v>
+      </c>
+      <c r="C241" s="1">
+        <v>180</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>33</v>
+      </c>
+      <c r="C242" s="1">
+        <v>190</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>33</v>
+      </c>
+      <c r="C243" s="1">
+        <v>150</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>33</v>
+      </c>
+      <c r="C244" s="1">
+        <v>200</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>33</v>
+      </c>
+      <c r="C245" s="1">
+        <v>170</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>33</v>
+      </c>
+      <c r="C246" s="1">
+        <v>185</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>33</v>
+      </c>
+      <c r="C247" s="1">
+        <v>175</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>34</v>
+      </c>
+      <c r="C248" s="1">
+        <v>90</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>34</v>
+      </c>
+      <c r="C249" s="1">
+        <v>100</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>34</v>
+      </c>
+      <c r="C250" s="1">
+        <v>110</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>34</v>
+      </c>
+      <c r="C251" s="1">
+        <v>120</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>34</v>
+      </c>
+      <c r="C252" s="1">
+        <v>95</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>34</v>
+      </c>
+      <c r="C253" s="1">
+        <v>105</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>34</v>
+      </c>
+      <c r="C254" s="1">
+        <v>115</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>35</v>
+      </c>
+      <c r="C255" s="1">
+        <v>110</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>35</v>
+      </c>
+      <c r="C256" s="1">
+        <v>130</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>35</v>
+      </c>
+      <c r="C257" s="1">
+        <v>120</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>35</v>
+      </c>
+      <c r="C258" s="1">
+        <v>140</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>35</v>
+      </c>
+      <c r="C259" s="1">
+        <v>150</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>35</v>
+      </c>
+      <c r="C260" s="1">
+        <v>125</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>35</v>
+      </c>
+      <c r="C261" s="1">
+        <v>135</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>35</v>
+      </c>
+      <c r="C262" s="1">
+        <v>145</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>36</v>
+      </c>
+      <c r="C263" s="1">
+        <v>60</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>36</v>
+      </c>
+      <c r="C264" s="1">
+        <v>70</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>36</v>
+      </c>
+      <c r="C265" s="1">
+        <v>75</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>36</v>
+      </c>
+      <c r="C266" s="1">
+        <v>80</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>36</v>
+      </c>
+      <c r="C267" s="1">
+        <v>90</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>36</v>
+      </c>
+      <c r="C268" s="1">
+        <v>65</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>37</v>
+      </c>
+      <c r="C269" s="1">
+        <v>65</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>37</v>
+      </c>
+      <c r="C270" s="1">
+        <v>70</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>37</v>
+      </c>
+      <c r="C271" s="1">
+        <v>80</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>37</v>
+      </c>
+      <c r="C272" s="1">
+        <v>75</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>37</v>
+      </c>
+      <c r="C273" s="1">
+        <v>85</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>37</v>
+      </c>
+      <c r="C274" s="1">
+        <v>90</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>37</v>
+      </c>
+      <c r="C275" s="1">
+        <v>95</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>38</v>
+      </c>
+      <c r="C276" s="1">
+        <v>60</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>38</v>
+      </c>
+      <c r="C277" s="1">
+        <v>30</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>38</v>
+      </c>
+      <c r="C278" s="1">
+        <v>70</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>38</v>
+      </c>
+      <c r="C279" s="1">
+        <v>40</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>38</v>
+      </c>
+      <c r="C280" s="1">
+        <v>65</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>38</v>
+      </c>
+      <c r="C281" s="1">
+        <v>35</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>38</v>
+      </c>
+      <c r="C282" s="1">
+        <v>70</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>38</v>
+      </c>
+      <c r="C283" s="1">
+        <v>40</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>38</v>
+      </c>
+      <c r="C284" s="1">
+        <v>75</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>38</v>
+      </c>
+      <c r="C285" s="1">
+        <v>45</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>38</v>
+      </c>
+      <c r="C286" s="1">
+        <v>80</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>38</v>
+      </c>
+      <c r="C287" s="1">
+        <v>40</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>38</v>
+      </c>
+      <c r="C288" s="1">
+        <v>70</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>38</v>
+      </c>
+      <c r="C289" s="1">
+        <v>50</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>38</v>
+      </c>
+      <c r="C290" s="1">
+        <v>65</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>38</v>
+      </c>
+      <c r="C291" s="1">
+        <v>45</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>39</v>
+      </c>
+      <c r="C292" s="1">
+        <v>110</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>39</v>
+      </c>
+      <c r="C293" s="1">
+        <v>130</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>39</v>
+      </c>
+      <c r="C294" s="1">
+        <v>125</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>39</v>
+      </c>
+      <c r="C295" s="1">
+        <v>140</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>39</v>
+      </c>
+      <c r="C296" s="1">
+        <v>120</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>39</v>
+      </c>
+      <c r="C297" s="1">
+        <v>135</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>39</v>
+      </c>
+      <c r="C298" s="1">
+        <v>150</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>39</v>
+      </c>
+      <c r="C299" s="1">
+        <v>100</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>40</v>
+      </c>
+      <c r="C300" s="1">
+        <v>65</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>40</v>
+      </c>
+      <c r="C301" s="1">
+        <v>70</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>40</v>
+      </c>
+      <c r="C302" s="1">
+        <v>60</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>40</v>
+      </c>
+      <c r="C303" s="1">
+        <v>75</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>40</v>
+      </c>
+      <c r="C304" s="1">
+        <v>80</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>40</v>
+      </c>
+      <c r="C305" s="1">
+        <v>65</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>40</v>
+      </c>
+      <c r="C306" s="1">
+        <v>70</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>41</v>
+      </c>
+      <c r="C307" s="1">
+        <v>60</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>41</v>
+      </c>
+      <c r="C308" s="1">
+        <v>70</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>41</v>
+      </c>
+      <c r="C309" s="1">
+        <v>75</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>41</v>
+      </c>
+      <c r="C310" s="1">
+        <v>80</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>41</v>
+      </c>
+      <c r="C311" s="1">
+        <v>85</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>41</v>
+      </c>
+      <c r="C312" s="1">
+        <v>65</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>41</v>
+      </c>
+      <c r="C313" s="1">
+        <v>90</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>41</v>
+      </c>
+      <c r="C314" s="1">
+        <v>70</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>42</v>
+      </c>
+      <c r="C315" s="1">
+        <v>110</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>42</v>
+      </c>
+      <c r="C316" s="1">
+        <v>120</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>42</v>
+      </c>
+      <c r="C317" s="1">
+        <v>100</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>42</v>
+      </c>
+      <c r="C318" s="1">
+        <v>130</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>42</v>
+      </c>
+      <c r="C319" s="1">
+        <v>115</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>42</v>
+      </c>
+      <c r="C320" s="1">
+        <v>125</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>42</v>
+      </c>
+      <c r="C321" s="1">
+        <v>135</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>43</v>
+      </c>
+      <c r="C322" s="1">
+        <v>25</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>43</v>
+      </c>
+      <c r="C323" s="1">
+        <v>30</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>43</v>
+      </c>
+      <c r="C324" s="1">
+        <v>20</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>43</v>
+      </c>
+      <c r="C325" s="1">
+        <v>35</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>43</v>
+      </c>
+      <c r="C326" s="1">
+        <v>28</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>43</v>
+      </c>
+      <c r="C327" s="1">
+        <v>30</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>43</v>
+      </c>
+      <c r="C328" s="1">
+        <v>25</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>43</v>
+      </c>
+      <c r="C329" s="1">
+        <v>22</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
